--- a/CMA_aging_Atlas_sumdata.xlsx
+++ b/CMA_aging_Atlas_sumdata.xlsx
@@ -88,6 +88,9 @@
     <t xml:space="preserve">EC astrocytes</t>
   </si>
   <si>
+    <t xml:space="preserve">EC neurons</t>
+  </si>
+  <si>
     <t>Glomeruli</t>
   </si>
   <si>
@@ -101,9 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lung Fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC neurons</t>
   </si>
   <si>
     <t xml:space="preserve">Rods photoreceptors</t>
@@ -156,12 +156,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
       <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal style="none"/>
     </border>
   </borders>
@@ -170,7 +185,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -686,18 +701,16 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="22.61328125"/>
-    <col bestFit="1" min="2" max="2" width="12.90234375"/>
-    <col bestFit="1" min="3" max="3" width="11.6640625"/>
-    <col bestFit="1" min="4" max="4" width="10.04296875"/>
-    <col bestFit="1" min="5" max="5" width="15.6640625"/>
-    <col bestFit="1" min="6" max="6" width="10.04296875"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="22.61328125"/>
+    <col customWidth="1" min="2" max="4" width="12.7109375"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="15.6640625"/>
+    <col customWidth="1" min="6" max="6" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -808,16 +821,16 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.093700000000000006</v>
+        <v>-1.1247</v>
       </c>
       <c r="D6">
         <v>-1.4114</v>
       </c>
       <c r="E6">
-        <v>-0.73939999999999995</v>
+        <v>-1.0761000000000001</v>
       </c>
       <c r="F6">
-        <v>1.2597</v>
+        <v>1.4666999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -828,16 +841,16 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1.077</v>
+        <v>0.34039999999999998</v>
       </c>
       <c r="D7">
         <v>0.77669999999999995</v>
       </c>
       <c r="E7">
-        <v>1.4063000000000001</v>
+        <v>0.13089999999999999</v>
       </c>
       <c r="F7">
-        <v>-1.0470999999999999</v>
+        <v>-0.48580000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -848,16 +861,16 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.17169999999999999</v>
+        <v>1.202</v>
       </c>
       <c r="D8">
         <v>-0.0014</v>
       </c>
       <c r="E8">
-        <v>0.0224</v>
+        <v>1.3027</v>
       </c>
       <c r="F8">
-        <v>0.27729999999999999</v>
+        <v>-0.747</v>
       </c>
     </row>
     <row r="9">
@@ -868,16 +881,16 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-1.3423</v>
+        <v>-0.41770000000000002</v>
       </c>
       <c r="D9">
         <v>0.6361</v>
       </c>
       <c r="E9">
-        <v>-0.68930000000000002</v>
+        <v>-0.35749999999999998</v>
       </c>
       <c r="F9">
-        <v>-0.4899</v>
+        <v>-0.2339</v>
       </c>
     </row>
     <row r="10">
@@ -888,16 +901,16 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-1.3106</v>
+        <v>-1.4755</v>
       </c>
       <c r="D10">
         <v>-1.4114</v>
       </c>
       <c r="E10">
-        <v>-1.4003000000000001</v>
+        <v>-0.29170000000000001</v>
       </c>
       <c r="F10">
-        <v>0.56279999999999997</v>
+        <v>-0.96299999999999997</v>
       </c>
     </row>
     <row r="11">
@@ -908,16 +921,16 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1.0778000000000001</v>
+        <v>0.32150000000000001</v>
       </c>
       <c r="D11">
         <v>0.77669999999999995</v>
       </c>
       <c r="E11">
-        <v>0.27300000000000002</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="F11">
-        <v>1.0038</v>
+        <v>-0.42420000000000002</v>
       </c>
     </row>
     <row r="12">
@@ -928,16 +941,16 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>0.33260000000000001</v>
+        <v>0.41310000000000002</v>
       </c>
       <c r="D12">
         <v>-0.0014</v>
       </c>
       <c r="E12">
-        <v>0.96930000000000005</v>
+        <v>-1.2064999999999999</v>
       </c>
       <c r="F12">
-        <v>-0.30980000000000002</v>
+        <v>1.3756999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -948,16 +961,16 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>-0.0998</v>
+        <v>0.7409</v>
       </c>
       <c r="D13">
         <v>0.6361</v>
       </c>
       <c r="E13">
-        <v>0.158</v>
+        <v>1.1596</v>
       </c>
       <c r="F13">
-        <v>-1.2567999999999999</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="14">
@@ -1368,16 +1381,16 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>-0.15459999999999999</v>
+        <v>-1.1681999999999999</v>
       </c>
       <c r="D34">
         <v>-0.66639999999999999</v>
       </c>
       <c r="E34">
-        <v>-0.54900000000000004</v>
+        <v>-0.21199999999999999</v>
       </c>
       <c r="F34">
-        <v>-0.43209999999999998</v>
+        <v>-1.2033</v>
       </c>
     </row>
     <row r="35">
@@ -1388,16 +1401,16 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>-0.96030000000000004</v>
+        <v>0.3135</v>
       </c>
       <c r="D35">
         <v>1.3182</v>
       </c>
       <c r="E35">
-        <v>0.67269999999999996</v>
+        <v>-1.2023999999999999</v>
       </c>
       <c r="F35">
-        <v>-0.13819999999999999</v>
+        <v>0.6079</v>
       </c>
     </row>
     <row r="36">
@@ -1408,16 +1421,16 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>-0.28889999999999999</v>
+        <v>-0.33800000000000002</v>
       </c>
       <c r="D36">
         <v>-0.87629999999999997</v>
       </c>
       <c r="E36">
-        <v>-1.1196999999999999</v>
+        <v>0.20280000000000001</v>
       </c>
       <c r="F36">
-        <v>-0.8619</v>
+        <v>-0.4113</v>
       </c>
     </row>
     <row r="37">
@@ -1428,16 +1441,16 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>1.4037999999999999</v>
+        <v>1.1928000000000001</v>
       </c>
       <c r="D37">
         <v>0.22450000000000001</v>
       </c>
       <c r="E37">
-        <v>0.99609999999999999</v>
+        <v>1.2117</v>
       </c>
       <c r="F37">
-        <v>1.4321999999999999</v>
+        <v>1.0066999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1448,13 +1461,13 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>0.081699999999999995</v>
+        <v>-0.1623</v>
       </c>
       <c r="D38">
         <v>0.75209999999999999</v>
       </c>
       <c r="E38">
-        <v>-0.15090000000000001</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="F38">
         <v>0.51429999999999998</v>
@@ -1468,13 +1481,13 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>0.8891</v>
+        <v>1.0611999999999999</v>
       </c>
       <c r="D39">
         <v>-1.2020999999999999</v>
       </c>
       <c r="E39">
-        <v>1.0795999999999999</v>
+        <v>1.2299</v>
       </c>
       <c r="F39">
         <v>0.55169999999999997</v>
@@ -1488,13 +1501,13 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>-1.4158999999999999</v>
+        <v>-1.2989999999999999</v>
       </c>
       <c r="D40">
         <v>-0.44140000000000001</v>
       </c>
       <c r="E40">
-        <v>-1.2950999999999999</v>
+        <v>-1.1634</v>
       </c>
       <c r="F40">
         <v>-1.4981</v>
@@ -1508,13 +1521,13 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>0.4451</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="D41">
         <v>0.89139999999999997</v>
       </c>
       <c r="E41">
-        <v>0.3664</v>
+        <v>0.2235</v>
       </c>
       <c r="F41">
         <v>0.432</v>
@@ -1836,16 +1849,16 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>-0.66349999999999998</v>
+        <v>1.2138</v>
       </c>
       <c r="D58">
-        <v>-0.68020000000000003</v>
+        <v>-1.2117</v>
       </c>
       <c r="E58">
-        <v>-0.54239999999999999</v>
+        <v>1.4528000000000001</v>
       </c>
       <c r="F58">
-        <v>-0.40350000000000003</v>
+        <v>0.64259999999999995</v>
       </c>
     </row>
     <row r="59">
@@ -1856,16 +1869,16 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>1.3407</v>
+        <v>-0.1835</v>
       </c>
       <c r="D59">
-        <v>-0.216</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="E59">
-        <v>0.65090000000000003</v>
+        <v>-0.53010000000000002</v>
       </c>
       <c r="F59">
-        <v>1.4958</v>
+        <v>0.42349999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -1876,16 +1889,16 @@
         <v>9</v>
       </c>
       <c r="C60">
-        <v>-0.85489999999999999</v>
+        <v>0.17849999999999999</v>
       </c>
       <c r="D60">
-        <v>-0.57399999999999995</v>
+        <v>-0.40810000000000002</v>
       </c>
       <c r="E60">
-        <v>-1.1211</v>
+        <v>-0.76370000000000005</v>
       </c>
       <c r="F60">
-        <v>-0.50690000000000002</v>
+        <v>0.4259</v>
       </c>
     </row>
     <row r="61">
@@ -1896,16 +1909,16 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>0.1777</v>
+        <v>-1.2088000000000001</v>
       </c>
       <c r="D61">
-        <v>1.4701</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="E61">
-        <v>1.0125999999999999</v>
+        <v>-0.159</v>
       </c>
       <c r="F61">
-        <v>-0.58540000000000003</v>
+        <v>-1.4921</v>
       </c>
     </row>
     <row r="62">
@@ -1916,16 +1929,16 @@
         <v>7</v>
       </c>
       <c r="C62">
-        <v>-1.0027999999999999</v>
+        <v>-0.42299999999999999</v>
       </c>
       <c r="D62">
-        <v>-0.3412</v>
+        <v>-0.68020000000000003</v>
       </c>
       <c r="E62">
-        <v>-0.30649999999999999</v>
+        <v>0.14610000000000001</v>
       </c>
       <c r="F62">
-        <v>-0.73550000000000004</v>
+        <v>-0.46000000000000002</v>
       </c>
     </row>
     <row r="63">
@@ -1936,16 +1949,16 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>0.2069</v>
+        <v>1.3512</v>
       </c>
       <c r="D63">
-        <v>0.87690000000000001</v>
+        <v>-0.216</v>
       </c>
       <c r="E63">
-        <v>1.2581</v>
+        <v>-0.0183</v>
       </c>
       <c r="F63">
-        <v>-0.67510000000000003</v>
+        <v>1.1677999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -1956,16 +1969,16 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <v>-0.50619999999999998</v>
+        <v>-0.99539999999999995</v>
       </c>
       <c r="D64">
-        <v>-1.2605999999999999</v>
+        <v>-0.57399999999999995</v>
       </c>
       <c r="E64">
-        <v>-1.1355</v>
+        <v>-1.2825</v>
       </c>
       <c r="F64">
-        <v>-0.0047999999999999996</v>
+        <v>-1.1202000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1976,16 +1989,16 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>1.3021</v>
+        <v>0.067299999999999999</v>
       </c>
       <c r="D65">
-        <v>0.72489999999999999</v>
+        <v>1.4701</v>
       </c>
       <c r="E65">
-        <v>0.18390000000000001</v>
+        <v>1.1548</v>
       </c>
       <c r="F65">
-        <v>1.4154</v>
+        <v>0.4123</v>
       </c>
     </row>
     <row r="66">
@@ -1996,16 +2009,16 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>0.40899999999999997</v>
+        <v>-1.0027999999999999</v>
       </c>
       <c r="D66">
-        <v>-0.79279999999999995</v>
+        <v>-0.3412</v>
       </c>
       <c r="E66">
-        <v>-1.0619000000000001</v>
+        <v>-0.30649999999999999</v>
       </c>
       <c r="F66">
-        <v>0.97719999999999996</v>
+        <v>-0.73550000000000004</v>
       </c>
     </row>
     <row r="67">
@@ -2016,16 +2029,16 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>0.85750000000000004</v>
+        <v>0.2069</v>
       </c>
       <c r="D67">
-        <v>-0.36899999999999999</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="E67">
-        <v>0.58819999999999995</v>
+        <v>1.2581</v>
       </c>
       <c r="F67">
-        <v>0.2999</v>
+        <v>-0.67510000000000003</v>
       </c>
     </row>
     <row r="68">
@@ -2036,16 +2049,16 @@
         <v>9</v>
       </c>
       <c r="C68">
-        <v>0.17150000000000001</v>
+        <v>-0.50619999999999998</v>
       </c>
       <c r="D68">
-        <v>1.4641999999999999</v>
+        <v>-1.2605999999999999</v>
       </c>
       <c r="E68">
-        <v>-0.60399999999999998</v>
+        <v>-1.1355</v>
       </c>
       <c r="F68">
-        <v>0.1164</v>
+        <v>-0.0047999999999999996</v>
       </c>
     </row>
     <row r="69">
@@ -2056,16 +2069,16 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>-1.4379999999999999</v>
+        <v>1.3021</v>
       </c>
       <c r="D69">
-        <v>-0.30249999999999999</v>
+        <v>0.72489999999999999</v>
       </c>
       <c r="E69">
-        <v>1.0777000000000001</v>
+        <v>0.18390000000000001</v>
       </c>
       <c r="F69">
-        <v>-1.3934</v>
+        <v>1.4154</v>
       </c>
     </row>
     <row r="70">
@@ -2076,16 +2089,16 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <v>-0.063700000000000007</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D70">
-        <v>0.54449999999999998</v>
+        <v>-0.79279999999999995</v>
       </c>
       <c r="E70">
-        <v>-0.8589</v>
+        <v>-1.0619000000000001</v>
       </c>
       <c r="F70">
-        <v>1.2359</v>
+        <v>0.97719999999999996</v>
       </c>
     </row>
     <row r="71">
@@ -2096,16 +2109,16 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>-1.0249999999999999</v>
+        <v>0.85750000000000004</v>
       </c>
       <c r="D71">
-        <v>-0.84889999999999999</v>
+        <v>-0.36899999999999999</v>
       </c>
       <c r="E71">
-        <v>0.018200000000000001</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="F71">
-        <v>-0.67959999999999998</v>
+        <v>0.2999</v>
       </c>
     </row>
     <row r="72">
@@ -2116,16 +2129,16 @@
         <v>9</v>
       </c>
       <c r="C72">
-        <v>-0.27800000000000002</v>
+        <v>0.17150000000000001</v>
       </c>
       <c r="D72">
-        <v>-0.83179999999999998</v>
+        <v>1.4641999999999999</v>
       </c>
       <c r="E72">
-        <v>-0.55649999999999999</v>
+        <v>-0.60399999999999998</v>
       </c>
       <c r="F72">
-        <v>0.37609999999999999</v>
+        <v>0.1164</v>
       </c>
     </row>
     <row r="73">
@@ -2136,16 +2149,16 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>1.3667</v>
+        <v>-1.4379999999999999</v>
       </c>
       <c r="D73">
-        <v>1.1362000000000001</v>
+        <v>-0.30249999999999999</v>
       </c>
       <c r="E73">
-        <v>1.3972</v>
+        <v>1.0777000000000001</v>
       </c>
       <c r="F73">
-        <v>-0.93240000000000001</v>
+        <v>-1.3934</v>
       </c>
     </row>
     <row r="74">
@@ -2156,16 +2169,16 @@
         <v>7</v>
       </c>
       <c r="C74">
-        <v>-0.92810000000000004</v>
+        <v>0.1108</v>
       </c>
       <c r="D74">
-        <v>1.0763</v>
+        <v>0.54449999999999998</v>
       </c>
       <c r="E74">
-        <v>-1.1896</v>
+        <v>-1.0895999999999999</v>
       </c>
       <c r="F74">
-        <v>-0.94310000000000005</v>
+        <v>1.3954</v>
       </c>
     </row>
     <row r="75">
@@ -2176,16 +2189,16 @@
         <v>8</v>
       </c>
       <c r="C75">
-        <v>1.3976</v>
+        <v>-0.92710000000000004</v>
       </c>
       <c r="D75">
-        <v>-0.82169999999999999</v>
+        <v>-0.84889999999999999</v>
       </c>
       <c r="E75">
-        <v>1.0245</v>
+        <v>-0.16689999999999999</v>
       </c>
       <c r="F75">
-        <v>1.4137999999999999</v>
+        <v>-0.81430000000000002</v>
       </c>
     </row>
     <row r="76">
@@ -2196,16 +2209,16 @@
         <v>9</v>
       </c>
       <c r="C76">
-        <v>-0.42849999999999999</v>
+        <v>-0.53920000000000001</v>
       </c>
       <c r="D76">
-        <v>-0.88029999999999997</v>
+        <v>-0.83179999999999998</v>
       </c>
       <c r="E76">
-        <v>-0.42820000000000003</v>
+        <v>-0.077100000000000002</v>
       </c>
       <c r="F76">
-        <v>-0.21310000000000001</v>
+        <v>-0.62280000000000002</v>
       </c>
     </row>
     <row r="77">
@@ -2216,16 +2229,16 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>-0.040899999999999999</v>
+        <v>1.3554999999999999</v>
       </c>
       <c r="D77">
-        <v>0.62570000000000003</v>
+        <v>1.1362000000000001</v>
       </c>
       <c r="E77">
-        <v>0.59319999999999995</v>
+        <v>1.3337000000000001</v>
       </c>
       <c r="F77">
-        <v>-0.25769999999999998</v>
+        <v>0.041700000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -2236,16 +2249,16 @@
         <v>7</v>
       </c>
       <c r="C78">
-        <v>0.77190000000000003</v>
+        <v>-1.0174000000000001</v>
       </c>
       <c r="D78">
-        <v>-1.2117</v>
+        <v>1.0763</v>
       </c>
       <c r="E78">
-        <v>0.6018</v>
+        <v>-1.0976999999999999</v>
       </c>
       <c r="F78">
-        <v>0.55110000000000003</v>
+        <v>-0.83640000000000003</v>
       </c>
     </row>
     <row r="79">
@@ -2256,16 +2269,16 @@
         <v>8</v>
       </c>
       <c r="C79">
-        <v>0.9496</v>
+        <v>1.1988000000000001</v>
       </c>
       <c r="D79">
-        <v>0.97370000000000001</v>
+        <v>-0.82169999999999999</v>
       </c>
       <c r="E79">
-        <v>0.96279999999999999</v>
+        <v>0.70130000000000003</v>
       </c>
       <c r="F79">
-        <v>1.1059000000000001</v>
+        <v>1.4482999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -2276,16 +2289,16 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>-0.96230000000000004</v>
+        <v>-0.59630000000000005</v>
       </c>
       <c r="D80">
-        <v>-0.40810000000000002</v>
+        <v>-0.88029999999999997</v>
       </c>
       <c r="E80">
-        <v>-1.2757000000000001</v>
+        <v>-0.58440000000000003</v>
       </c>
       <c r="F80">
-        <v>-1.0527</v>
+        <v>-0.3947</v>
       </c>
     </row>
     <row r="81">
@@ -2296,16 +2309,16 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>-0.75919999999999999</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D81">
-        <v>0.64600000000000002</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="E81">
-        <v>-0.2888</v>
+        <v>0.98070000000000002</v>
       </c>
       <c r="F81">
-        <v>-0.60429999999999995</v>
+        <v>-0.2172</v>
       </c>
     </row>
     <row r="82">
@@ -2544,16 +2557,16 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>-0.71360000000000001</v>
+        <v>-0.69140000000000001</v>
       </c>
       <c r="D94">
         <v>0.92869999999999997</v>
       </c>
       <c r="E94">
-        <v>-0.73280000000000001</v>
+        <v>-0.79149999999999998</v>
       </c>
       <c r="F94">
-        <v>1.1609</v>
+        <v>0.69840000000000002</v>
       </c>
     </row>
     <row r="95">
@@ -2564,16 +2577,16 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>1.1151</v>
+        <v>1.3439000000000001</v>
       </c>
       <c r="D95">
         <v>-0.0361</v>
       </c>
       <c r="E95">
-        <v>1.1293</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="F95">
-        <v>-0.65200000000000002</v>
+        <v>-0.080500000000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2584,16 +2597,16 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>-0.96450000000000002</v>
+        <v>-0.82779999999999998</v>
       </c>
       <c r="D96">
         <v>-1.3785000000000001</v>
       </c>
       <c r="E96">
-        <v>-0.94289999999999996</v>
+        <v>-0.92789999999999995</v>
       </c>
       <c r="F96">
-        <v>0.48649999999999999</v>
+        <v>0.76690000000000003</v>
       </c>
     </row>
     <row r="97">
@@ -2604,16 +2617,16 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>0.56299999999999994</v>
+        <v>0.17519999999999999</v>
       </c>
       <c r="D97">
         <v>0.48580000000000001</v>
       </c>
       <c r="E97">
-        <v>0.5464</v>
+        <v>0.72870000000000001</v>
       </c>
       <c r="F97">
-        <v>-0.99529999999999996</v>
+        <v>-1.3848</v>
       </c>
     </row>
     <row r="98">
@@ -2624,16 +2637,16 @@
         <v>7</v>
       </c>
       <c r="C98">
-        <v>0.46889999999999998</v>
+        <v>0.37509999999999999</v>
       </c>
       <c r="D98">
         <v>0.54759999999999998</v>
       </c>
       <c r="E98">
-        <v>0.56789999999999996</v>
+        <v>0.37140000000000001</v>
       </c>
       <c r="F98">
-        <v>-0.3574</v>
+        <v>-0.35780000000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2644,16 +2657,16 @@
         <v>8</v>
       </c>
       <c r="C99">
-        <v>0.89410000000000001</v>
+        <v>0.85150000000000003</v>
       </c>
       <c r="D99">
         <v>-1.4890000000000001</v>
       </c>
       <c r="E99">
-        <v>0.59689999999999999</v>
+        <v>0.63870000000000005</v>
       </c>
       <c r="F99">
-        <v>1.2381</v>
+        <v>1.2383</v>
       </c>
     </row>
     <row r="100">
@@ -2664,16 +2677,16 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>-1.4067000000000001</v>
+        <v>-1.4446000000000001</v>
       </c>
       <c r="D100">
         <v>0.32940000000000003</v>
       </c>
       <c r="E100">
-        <v>-1.4886999999999999</v>
+        <v>-1.4908999999999999</v>
       </c>
       <c r="F100">
-        <v>-1.1301000000000001</v>
+        <v>-1.1297999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -2684,16 +2697,16 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>0.043700000000000003</v>
+        <v>0.21790000000000001</v>
       </c>
       <c r="D101">
         <v>0.61199999999999999</v>
       </c>
       <c r="E101">
-        <v>0.32390000000000002</v>
+        <v>0.48080000000000001</v>
       </c>
       <c r="F101">
-        <v>0.24940000000000001</v>
+        <v>0.2492</v>
       </c>
     </row>
     <row r="102">

--- a/CMA_aging_Atlas_sumdata.xlsx
+++ b/CMA_aging_Atlas_sumdata.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imdea-my.sharepoint.com/personal/adrian_martin_alimentacion_imdea_org/Documents/Old_labs/Cuervo_lab/Dendra_paper/Data_v3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_4F8195885B805E1D43DA2911595ED87656CDDBE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97DE78A0-7B9A-4BDD-B623-CF371183E52D}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="35">
   <si>
     <t>Cell_type</t>
   </si>
@@ -22,73 +28,67 @@
     <t>Gender_Age</t>
   </si>
   <si>
-    <t xml:space="preserve">CMA activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMA score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction CMA Lys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1 number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acinar Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alveolar Epithelial Type I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alveolar Epithelial Type II</t>
+    <t>CMA activity</t>
+  </si>
+  <si>
+    <t>CMA score</t>
+  </si>
+  <si>
+    <t>Fraction CMA Lys</t>
+  </si>
+  <si>
+    <t>L1 number</t>
+  </si>
+  <si>
+    <t>Acinar Cells</t>
+  </si>
+  <si>
+    <t>Female Old</t>
+  </si>
+  <si>
+    <t>Female Young</t>
+  </si>
+  <si>
+    <t>Male Old</t>
+  </si>
+  <si>
+    <t>Male Young</t>
   </si>
   <si>
     <t>BAT</t>
   </si>
   <si>
-    <t xml:space="preserve">CA1 astrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA1 neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB excitatory neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB inhibitory neurons</t>
+    <t>CA1 astrocytes</t>
+  </si>
+  <si>
+    <t>CA1 neurons</t>
+  </si>
+  <si>
+    <t>CB excitatory neurons</t>
+  </si>
+  <si>
+    <t>CB inhibitory neurons</t>
   </si>
   <si>
     <t>Cardiomyocytes</t>
   </si>
   <si>
-    <t xml:space="preserve">Collecting Ducts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cone photoreceptors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG astrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC astrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC neurons</t>
+    <t>Collecting Ducts</t>
+  </si>
+  <si>
+    <t>Cone photoreceptors</t>
+  </si>
+  <si>
+    <t>DG astrocytes</t>
+  </si>
+  <si>
+    <t>DG neurons</t>
+  </si>
+  <si>
+    <t>EC Astrocytes</t>
+  </si>
+  <si>
+    <t>EC neurons</t>
   </si>
   <si>
     <t>Glomeruli</t>
@@ -97,25 +97,19 @@
     <t>Hepatocytes</t>
   </si>
   <si>
-    <t xml:space="preserve">Kupffer Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung Endothelial Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung Fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rods photoreceptors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC astrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skeletal Myofibers</t>
+    <t>Kupffer Cells</t>
+  </si>
+  <si>
+    <t>Rods photoreceptors</t>
+  </si>
+  <si>
+    <t>SC Astrocytes</t>
+  </si>
+  <si>
+    <t>SC neurons</t>
+  </si>
+  <si>
+    <t>Skeletal Myofibers</t>
   </si>
   <si>
     <t>Tubules</t>
@@ -136,16 +130,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,34 +155,34 @@
   </fills>
   <borders count="2">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -193,16 +190,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -248,13 +248,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -282,13 +282,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -485,235 +485,25 @@
 </a:theme>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="22.61328125"/>
-    <col customWidth="1" min="2" max="4" width="12.7109375"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="15.6640625"/>
-    <col customWidth="1" min="6" max="6" width="12.7109375"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -753,7 +543,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -770,10 +560,10 @@
         <v>1.1509</v>
       </c>
       <c r="F3">
-        <v>-0.0115</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>-1.15E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -793,7 +583,7 @@
         <v>-1.2901</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -813,7 +603,7 @@
         <v>1.145</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -821,19 +611,19 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>-1.1247</v>
+        <v>-0.31140000000000001</v>
       </c>
       <c r="D6">
-        <v>-1.4114</v>
+        <v>-0.15720000000000001</v>
       </c>
       <c r="E6">
-        <v>-1.0761000000000001</v>
+        <v>-0.56059999999999999</v>
       </c>
       <c r="F6">
-        <v>1.4666999999999999</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -841,19 +631,19 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.34039999999999998</v>
+        <v>-1.2020999999999999</v>
       </c>
       <c r="D7">
-        <v>0.77669999999999995</v>
+        <v>1.4473</v>
       </c>
       <c r="E7">
-        <v>0.13089999999999999</v>
+        <v>-1.1155999999999999</v>
       </c>
       <c r="F7">
-        <v>-0.48580000000000001</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>-1.3138000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -861,19 +651,19 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1.202</v>
+        <v>0.3614</v>
       </c>
       <c r="D8">
-        <v>-0.0014</v>
+        <v>-0.48909999999999998</v>
       </c>
       <c r="E8">
-        <v>1.3027</v>
+        <v>0.70340000000000003</v>
       </c>
       <c r="F8">
-        <v>-0.747</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.14349999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -881,19 +671,19 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-0.41770000000000002</v>
+        <v>1.1520999999999999</v>
       </c>
       <c r="D9">
-        <v>0.6361</v>
+        <v>-0.80089999999999995</v>
       </c>
       <c r="E9">
-        <v>-0.35749999999999998</v>
+        <v>0.9728</v>
       </c>
       <c r="F9">
-        <v>-0.2339</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1.1183000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -901,19 +691,19 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-1.4755</v>
+        <v>-1.2576000000000001</v>
       </c>
       <c r="D10">
-        <v>-1.4114</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E10">
-        <v>-0.29170000000000001</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="F10">
-        <v>-0.96299999999999997</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>-0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -921,19 +711,19 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.32150000000000001</v>
+        <v>-0.16320000000000001</v>
       </c>
       <c r="D11">
-        <v>0.77669999999999995</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="E11">
-        <v>0.33860000000000001</v>
+        <v>-1.4056</v>
       </c>
       <c r="F11">
-        <v>-0.42420000000000002</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1.3742000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -941,19 +731,19 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>0.41310000000000002</v>
+        <v>1.1476999999999999</v>
       </c>
       <c r="D12">
-        <v>-0.0014</v>
+        <v>-1.4379999999999999</v>
       </c>
       <c r="E12">
-        <v>-1.2064999999999999</v>
+        <v>0.83179999999999998</v>
       </c>
       <c r="F12">
-        <v>1.3756999999999999</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>-0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -961,19 +751,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.7409</v>
+        <v>0.2732</v>
       </c>
       <c r="D13">
-        <v>0.6361</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="E13">
-        <v>1.1596</v>
+        <v>0.57650000000000001</v>
       </c>
       <c r="F13">
-        <v>0.0115</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -981,19 +771,19 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>-0.31140000000000001</v>
+        <v>1.12E-2</v>
       </c>
       <c r="D14">
-        <v>-0.15720000000000001</v>
+        <v>1.4455</v>
       </c>
       <c r="E14">
-        <v>-0.56059999999999999</v>
+        <v>-0.1472</v>
       </c>
       <c r="F14">
-        <v>0.051999999999999998</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.20810000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1001,19 +791,19 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>-1.2020999999999999</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="D15">
-        <v>1.4473</v>
+        <v>-0.81499999999999995</v>
       </c>
       <c r="E15">
-        <v>-1.1155999999999999</v>
+        <v>0.53680000000000005</v>
       </c>
       <c r="F15">
-        <v>-1.3138000000000001</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1.3004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1021,19 +811,19 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>0.3614</v>
+        <v>-1.2598</v>
       </c>
       <c r="D16">
-        <v>-0.48909999999999998</v>
+        <v>-0.46960000000000002</v>
       </c>
       <c r="E16">
-        <v>0.70340000000000003</v>
+        <v>-1.3381000000000001</v>
       </c>
       <c r="F16">
-        <v>0.14349999999999999</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>-1.0072000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1041,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>1.1520999999999999</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="D17">
-        <v>-0.80089999999999995</v>
+        <v>-0.16089999999999999</v>
       </c>
       <c r="E17">
-        <v>0.9728</v>
+        <v>0.9486</v>
       </c>
       <c r="F17">
-        <v>1.1183000000000001</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>-0.50129999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1061,19 +851,19 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>-1.2576000000000001</v>
+        <v>0.69930000000000003</v>
       </c>
       <c r="D18">
-        <v>0.085000000000000006</v>
+        <v>-0.51200000000000001</v>
       </c>
       <c r="E18">
-        <v>-0.0025999999999999999</v>
+        <v>1.1892</v>
       </c>
       <c r="F18">
-        <v>-0.96870000000000001</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.59150000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1081,19 +871,19 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>-0.16320000000000001</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="D19">
-        <v>0.60799999999999998</v>
+        <v>1.3117000000000001</v>
       </c>
       <c r="E19">
-        <v>-1.4056</v>
+        <v>0.4199</v>
       </c>
       <c r="F19">
-        <v>1.3742000000000001</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1.0679000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1101,19 +891,19 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>1.1476999999999999</v>
+        <v>-0.59240000000000004</v>
       </c>
       <c r="D20">
-        <v>-1.4379999999999999</v>
+        <v>-0.99039999999999995</v>
       </c>
       <c r="E20">
-        <v>0.83179999999999998</v>
+        <v>-0.56489999999999996</v>
       </c>
       <c r="F20">
-        <v>-0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>-0.57210000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1121,19 +911,19 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>0.2732</v>
+        <v>-1.0912999999999999</v>
       </c>
       <c r="D21">
-        <v>0.74509999999999998</v>
+        <v>0.19070000000000001</v>
       </c>
       <c r="E21">
-        <v>0.57650000000000001</v>
+        <v>-1.0442</v>
       </c>
       <c r="F21">
-        <v>0.0104</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>-1.0873999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1141,19 +931,19 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>0.0112</v>
+        <v>-0.49149999999999999</v>
       </c>
       <c r="D22">
-        <v>1.4455</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E22">
-        <v>-0.1472</v>
+        <v>-1.4300999999999999</v>
       </c>
       <c r="F22">
-        <v>0.20810000000000001</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>-0.3004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1161,19 +951,19 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>1.1870000000000001</v>
+        <v>1.1933</v>
       </c>
       <c r="D23">
-        <v>-0.81499999999999995</v>
+        <v>-1.1527000000000001</v>
       </c>
       <c r="E23">
-        <v>0.53680000000000005</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="F23">
-        <v>1.3004</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1.2428999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1181,19 +971,19 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>-1.2598</v>
+        <v>-1.0886</v>
       </c>
       <c r="D24">
-        <v>-0.46960000000000002</v>
+        <v>-0.43990000000000001</v>
       </c>
       <c r="E24">
-        <v>-1.3381000000000001</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="F24">
-        <v>-1.0072000000000001</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>-1.1497999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1201,19 +991,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.061499999999999999</v>
+        <v>0.38679999999999998</v>
       </c>
       <c r="D25">
-        <v>-0.16089999999999999</v>
+        <v>0.47260000000000002</v>
       </c>
       <c r="E25">
-        <v>0.9486</v>
+        <v>0.72330000000000005</v>
       </c>
       <c r="F25">
-        <v>-0.50129999999999997</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0.20730000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1221,19 +1011,19 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>0.69930000000000003</v>
+        <v>-1.0306999999999999</v>
       </c>
       <c r="D26">
-        <v>-0.51200000000000001</v>
+        <v>-0.66639999999999999</v>
       </c>
       <c r="E26">
-        <v>1.1892</v>
+        <v>-1.1564000000000001</v>
       </c>
       <c r="F26">
-        <v>0.59150000000000003</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>-1.2031000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1241,19 +1031,19 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>0.98440000000000005</v>
+        <v>0.81610000000000005</v>
       </c>
       <c r="D27">
-        <v>1.3117000000000001</v>
+        <v>1.3182</v>
       </c>
       <c r="E27">
-        <v>0.4199</v>
+        <v>-0.1217</v>
       </c>
       <c r="F27">
-        <v>1.0679000000000001</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.60809999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1261,19 +1051,19 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>-0.59240000000000004</v>
+        <v>-0.68279999999999996</v>
       </c>
       <c r="D28">
-        <v>-0.99039999999999995</v>
+        <v>-0.87629999999999997</v>
       </c>
       <c r="E28">
-        <v>-0.56489999999999996</v>
+        <v>-5.5999999999999999E-3</v>
       </c>
       <c r="F28">
-        <v>-0.57210000000000005</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>-0.41160000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1281,19 +1071,19 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>-1.0912999999999999</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="D29">
-        <v>0.19070000000000001</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="E29">
-        <v>-1.0442</v>
+        <v>1.2837000000000001</v>
       </c>
       <c r="F29">
-        <v>-1.0873999999999999</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>1.0065999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1301,19 +1091,19 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>-0.49149999999999999</v>
+        <v>-0.1623</v>
       </c>
       <c r="D30">
-        <v>1.1200000000000001</v>
+        <v>0.75209999999999999</v>
       </c>
       <c r="E30">
-        <v>-1.4300999999999999</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="F30">
-        <v>-0.3004</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0.51429999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1321,19 +1111,19 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>1.1933</v>
+        <v>1.0611999999999999</v>
       </c>
       <c r="D31">
-        <v>-1.1527000000000001</v>
+        <v>-1.2020999999999999</v>
       </c>
       <c r="E31">
-        <v>0.051700000000000003</v>
+        <v>1.2299</v>
       </c>
       <c r="F31">
-        <v>1.2428999999999999</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.55169999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1341,19 +1131,19 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>-1.0886</v>
+        <v>-1.2989999999999999</v>
       </c>
       <c r="D32">
-        <v>-0.43990000000000001</v>
+        <v>-0.44140000000000001</v>
       </c>
       <c r="E32">
-        <v>0.65500000000000003</v>
+        <v>-1.1634</v>
       </c>
       <c r="F32">
-        <v>-1.1497999999999999</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>-1.4981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1361,19 +1151,19 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>0.38679999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="D33">
-        <v>0.47260000000000002</v>
+        <v>0.89139999999999997</v>
       </c>
       <c r="E33">
-        <v>0.72330000000000005</v>
+        <v>0.2235</v>
       </c>
       <c r="F33">
-        <v>0.20730000000000001</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1381,19 +1171,16 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>-1.1681999999999999</v>
-      </c>
-      <c r="D34">
-        <v>-0.66639999999999999</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="E34">
-        <v>-0.21199999999999999</v>
+        <v>-1.1375999999999999</v>
       </c>
       <c r="F34">
-        <v>-1.2033</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>1.4524999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1401,19 +1188,16 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>0.3135</v>
-      </c>
-      <c r="D35">
-        <v>1.3182</v>
+        <v>0.85240000000000005</v>
       </c>
       <c r="E35">
-        <v>-1.2023999999999999</v>
+        <v>1.2134</v>
       </c>
       <c r="F35">
-        <v>0.6079</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>-0.46970000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -1421,19 +1205,16 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>-0.33800000000000002</v>
-      </c>
-      <c r="D36">
-        <v>-0.87629999999999997</v>
+        <v>-1.2975000000000001</v>
       </c>
       <c r="E36">
-        <v>0.20280000000000001</v>
+        <v>-0.37740000000000001</v>
       </c>
       <c r="F36">
-        <v>-0.4113</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>-0.79679999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1441,19 +1222,16 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>1.1928000000000001</v>
-      </c>
-      <c r="D37">
-        <v>0.22450000000000001</v>
+        <v>-0.27289999999999998</v>
       </c>
       <c r="E37">
-        <v>1.2117</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="F37">
-        <v>1.0066999999999999</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>-0.186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1461,19 +1239,19 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>-0.1623</v>
+        <v>-0.76300000000000001</v>
       </c>
       <c r="D38">
-        <v>0.75209999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E38">
-        <v>-0.28999999999999998</v>
+        <v>0.82620000000000005</v>
       </c>
       <c r="F38">
-        <v>0.51429999999999998</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>-0.85050000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1481,19 +1259,19 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>1.0611999999999999</v>
+        <v>0.30609999999999998</v>
       </c>
       <c r="D39">
-        <v>-1.2020999999999999</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="E39">
-        <v>1.2299</v>
+        <v>-1.3211999999999999</v>
       </c>
       <c r="F39">
-        <v>0.55169999999999997</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0.8206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1501,19 +1279,19 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>-1.2989999999999999</v>
+        <v>-0.82509999999999994</v>
       </c>
       <c r="D40">
-        <v>-0.44140000000000001</v>
+        <v>-1.4379999999999999</v>
       </c>
       <c r="E40">
-        <v>-1.1634</v>
+        <v>-0.22650000000000001</v>
       </c>
       <c r="F40">
-        <v>-1.4981</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>-0.88029999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1521,19 +1299,19 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>0.40000000000000002</v>
+        <v>1.2819</v>
       </c>
       <c r="D41">
-        <v>0.89139999999999997</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="E41">
-        <v>0.2235</v>
+        <v>0.72150000000000003</v>
       </c>
       <c r="F41">
-        <v>0.432</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0.91010000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1541,16 +1319,19 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>0.71799999999999997</v>
+        <v>-0.47860000000000003</v>
+      </c>
+      <c r="D42">
+        <v>1.4455</v>
       </c>
       <c r="E42">
-        <v>-1.1375999999999999</v>
+        <v>-0.54749999999999999</v>
       </c>
       <c r="F42">
-        <v>1.4524999999999999</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0.33889999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -1558,16 +1339,19 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>0.85240000000000005</v>
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="D43">
+        <v>-0.81499999999999995</v>
       </c>
       <c r="E43">
-        <v>1.2134</v>
+        <v>0.76880000000000004</v>
       </c>
       <c r="F43">
-        <v>-0.46970000000000001</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0.53720000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1575,16 +1359,19 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>-1.2975000000000001</v>
+        <v>-1.1803999999999999</v>
+      </c>
+      <c r="D44">
+        <v>-0.46960000000000002</v>
       </c>
       <c r="E44">
-        <v>-0.37740000000000001</v>
+        <v>-1.1315999999999999</v>
       </c>
       <c r="F44">
-        <v>-0.79679999999999995</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>-1.4899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1592,16 +1379,19 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>-0.27289999999999998</v>
+        <v>0.85819999999999996</v>
+      </c>
+      <c r="D45">
+        <v>-0.16089999999999999</v>
       </c>
       <c r="E45">
-        <v>0.30159999999999998</v>
+        <v>0.9103</v>
       </c>
       <c r="F45">
-        <v>-0.186</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0.61380000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1609,19 +1399,19 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>-0.76300000000000001</v>
+        <v>-0.62439999999999996</v>
       </c>
       <c r="D46">
-        <v>0.085000000000000006</v>
+        <v>-0.76549999999999996</v>
       </c>
       <c r="E46">
-        <v>0.82620000000000005</v>
+        <v>-0.95240000000000002</v>
       </c>
       <c r="F46">
-        <v>-0.85050000000000003</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>-0.251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1629,19 +1419,19 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>0.30609999999999998</v>
+        <v>-6.7199999999999996E-2</v>
       </c>
       <c r="D47">
-        <v>0.60799999999999998</v>
+        <v>0.47070000000000001</v>
       </c>
       <c r="E47">
-        <v>-1.3211999999999999</v>
+        <v>-0.2359</v>
       </c>
       <c r="F47">
-        <v>0.8206</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0.37180000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -1649,19 +1439,19 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>-0.82509999999999994</v>
+        <v>-0.74199999999999999</v>
       </c>
       <c r="D48">
-        <v>-1.4379999999999999</v>
+        <v>-0.8891</v>
       </c>
       <c r="E48">
-        <v>-0.22650000000000001</v>
+        <v>-0.22159999999999999</v>
       </c>
       <c r="F48">
-        <v>-0.88029999999999997</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>-1.2418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -1669,19 +1459,19 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>1.2819</v>
+        <v>1.4336</v>
       </c>
       <c r="D49">
-        <v>0.74509999999999998</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="E49">
-        <v>0.72150000000000003</v>
+        <v>1.41</v>
       </c>
       <c r="F49">
-        <v>0.91010000000000002</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1.121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1689,19 +1479,19 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>-0.47860000000000003</v>
+        <v>1.2138</v>
       </c>
       <c r="D50">
-        <v>1.4455</v>
+        <v>-1.2117</v>
       </c>
       <c r="E50">
-        <v>-0.54749999999999999</v>
+        <v>1.4528000000000001</v>
       </c>
       <c r="F50">
-        <v>0.33889999999999998</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0.64259999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -1709,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C51">
-        <v>0.80079999999999996</v>
+        <v>-0.1835</v>
       </c>
       <c r="D51">
-        <v>-0.81499999999999995</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="E51">
-        <v>0.76880000000000004</v>
+        <v>-0.53010000000000002</v>
       </c>
       <c r="F51">
-        <v>0.53720000000000001</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0.42349999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1729,19 +1519,19 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>-1.1803999999999999</v>
+        <v>0.17849999999999999</v>
       </c>
       <c r="D52">
-        <v>-0.46960000000000002</v>
+        <v>-0.40810000000000002</v>
       </c>
       <c r="E52">
-        <v>-1.1315999999999999</v>
+        <v>-0.76370000000000005</v>
       </c>
       <c r="F52">
-        <v>-1.4899</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0.4259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -1749,19 +1539,19 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>0.85819999999999996</v>
+        <v>-1.2088000000000001</v>
       </c>
       <c r="D53">
-        <v>-0.16089999999999999</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="E53">
-        <v>0.9103</v>
+        <v>-0.159</v>
       </c>
       <c r="F53">
-        <v>0.61380000000000001</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>-1.4921</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -1769,19 +1559,19 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>-0.62439999999999996</v>
+        <v>-0.42299999999999999</v>
       </c>
       <c r="D54">
-        <v>-0.76549999999999996</v>
+        <v>-0.68020000000000003</v>
       </c>
       <c r="E54">
-        <v>-0.95240000000000002</v>
+        <v>0.14610000000000001</v>
       </c>
       <c r="F54">
-        <v>-0.251</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -1789,19 +1579,19 @@
         <v>8</v>
       </c>
       <c r="C55">
-        <v>-0.067199999999999996</v>
+        <v>1.3512</v>
       </c>
       <c r="D55">
-        <v>0.47070000000000001</v>
+        <v>-0.216</v>
       </c>
       <c r="E55">
-        <v>-0.2359</v>
+        <v>-1.83E-2</v>
       </c>
       <c r="F55">
-        <v>0.37180000000000002</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>1.1677999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -1809,19 +1599,19 @@
         <v>9</v>
       </c>
       <c r="C56">
-        <v>-0.74199999999999999</v>
+        <v>-0.99539999999999995</v>
       </c>
       <c r="D56">
-        <v>-0.8891</v>
+        <v>-0.57399999999999995</v>
       </c>
       <c r="E56">
-        <v>-0.22159999999999999</v>
+        <v>-1.2825</v>
       </c>
       <c r="F56">
-        <v>-1.2418</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>-1.1202000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -1829,19 +1619,19 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>1.4336</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="D57">
-        <v>1.1839999999999999</v>
+        <v>1.4701</v>
       </c>
       <c r="E57">
-        <v>1.4099999999999999</v>
+        <v>1.1548</v>
       </c>
       <c r="F57">
-        <v>1.121</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>0.4123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1849,19 +1639,19 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>1.2138</v>
+        <v>-1.0027999999999999</v>
       </c>
       <c r="D58">
-        <v>-1.2117</v>
+        <v>-0.3412</v>
       </c>
       <c r="E58">
-        <v>1.4528000000000001</v>
+        <v>-0.30649999999999999</v>
       </c>
       <c r="F58">
-        <v>0.64259999999999995</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>-0.73550000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1869,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>-0.1835</v>
+        <v>0.2069</v>
       </c>
       <c r="D59">
-        <v>0.97370000000000001</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="E59">
-        <v>-0.53010000000000002</v>
+        <v>1.2581</v>
       </c>
       <c r="F59">
-        <v>0.42349999999999999</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>-0.67510000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -1889,19 +1679,19 @@
         <v>9</v>
       </c>
       <c r="C60">
-        <v>0.17849999999999999</v>
+        <v>-0.50619999999999998</v>
       </c>
       <c r="D60">
-        <v>-0.40810000000000002</v>
+        <v>-1.2605999999999999</v>
       </c>
       <c r="E60">
-        <v>-0.76370000000000005</v>
+        <v>-1.1355</v>
       </c>
       <c r="F60">
-        <v>0.4259</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>-4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -1909,19 +1699,19 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>-1.2088000000000001</v>
+        <v>1.3021</v>
       </c>
       <c r="D61">
-        <v>0.64600000000000002</v>
+        <v>0.72489999999999999</v>
       </c>
       <c r="E61">
-        <v>-0.159</v>
+        <v>0.18390000000000001</v>
       </c>
       <c r="F61">
-        <v>-1.4921</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>1.4154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -1929,19 +1719,19 @@
         <v>7</v>
       </c>
       <c r="C62">
-        <v>-0.42299999999999999</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D62">
-        <v>-0.68020000000000003</v>
+        <v>-0.79279999999999995</v>
       </c>
       <c r="E62">
-        <v>0.14610000000000001</v>
+        <v>-1.0619000000000001</v>
       </c>
       <c r="F62">
-        <v>-0.46000000000000002</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0.97719999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -1949,19 +1739,19 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>1.3512</v>
+        <v>0.85750000000000004</v>
       </c>
       <c r="D63">
-        <v>-0.216</v>
+        <v>-0.36899999999999999</v>
       </c>
       <c r="E63">
-        <v>-0.0183</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="F63">
-        <v>1.1677999999999999</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0.2999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -1969,19 +1759,19 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <v>-0.99539999999999995</v>
+        <v>0.17150000000000001</v>
       </c>
       <c r="D64">
-        <v>-0.57399999999999995</v>
+        <v>1.4641999999999999</v>
       </c>
       <c r="E64">
-        <v>-1.2825</v>
+        <v>-0.60399999999999998</v>
       </c>
       <c r="F64">
-        <v>-1.1202000000000001</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0.1164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -1989,19 +1779,19 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>0.067299999999999999</v>
+        <v>-1.4379999999999999</v>
       </c>
       <c r="D65">
-        <v>1.4701</v>
+        <v>-0.30249999999999999</v>
       </c>
       <c r="E65">
-        <v>1.1548</v>
+        <v>1.0777000000000001</v>
       </c>
       <c r="F65">
-        <v>0.4123</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>-1.3934</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2009,19 +1799,16 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>-1.0027999999999999</v>
-      </c>
-      <c r="D66">
-        <v>-0.3412</v>
+        <v>1.1482000000000001</v>
       </c>
       <c r="E66">
-        <v>-0.30649999999999999</v>
+        <v>1.3629</v>
       </c>
       <c r="F66">
-        <v>-0.73550000000000004</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0.70420000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -2029,19 +1816,16 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>0.2069</v>
-      </c>
-      <c r="D67">
-        <v>0.87690000000000001</v>
+        <v>-0.91669999999999996</v>
       </c>
       <c r="E67">
-        <v>1.2581</v>
+        <v>-0.99880000000000002</v>
       </c>
       <c r="F67">
-        <v>-0.67510000000000003</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>-1.3838999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -2049,19 +1833,16 @@
         <v>9</v>
       </c>
       <c r="C68">
-        <v>-0.50619999999999998</v>
-      </c>
-      <c r="D68">
-        <v>-1.2605999999999999</v>
+        <v>-0.754</v>
       </c>
       <c r="E68">
-        <v>-1.1355</v>
+        <v>-0.38030000000000003</v>
       </c>
       <c r="F68">
-        <v>-0.0047999999999999996</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>-8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -2069,19 +1850,16 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>1.3021</v>
-      </c>
-      <c r="D69">
-        <v>0.72489999999999999</v>
+        <v>0.52249999999999996</v>
       </c>
       <c r="E69">
-        <v>0.18390000000000001</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="F69">
-        <v>1.4154</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>0.76290000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -2089,19 +1867,19 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <v>0.40899999999999997</v>
+        <v>-0.2016</v>
       </c>
       <c r="D70">
-        <v>-0.79279999999999995</v>
+        <v>-0.76549999999999996</v>
       </c>
       <c r="E70">
-        <v>-1.0619000000000001</v>
+        <v>-1.0365</v>
       </c>
       <c r="F70">
-        <v>0.97719999999999996</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>0.66449999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -2109,19 +1887,19 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>0.85750000000000004</v>
+        <v>1.4548000000000001</v>
       </c>
       <c r="D71">
-        <v>-0.36899999999999999</v>
+        <v>0.47070000000000001</v>
       </c>
       <c r="E71">
-        <v>0.58819999999999995</v>
+        <v>-0.57430000000000003</v>
       </c>
       <c r="F71">
-        <v>0.2999</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>1.0410999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -2129,19 +1907,19 @@
         <v>9</v>
       </c>
       <c r="C72">
-        <v>0.17150000000000001</v>
+        <v>-0.45700000000000002</v>
       </c>
       <c r="D72">
-        <v>1.4641999999999999</v>
+        <v>-0.8891</v>
       </c>
       <c r="E72">
-        <v>-0.60399999999999998</v>
+        <v>1.1917</v>
       </c>
       <c r="F72">
-        <v>0.1164</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>-0.95309999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -2149,19 +1927,19 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>-1.4379999999999999</v>
+        <v>-0.79630000000000001</v>
       </c>
       <c r="D73">
-        <v>-0.30249999999999999</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="E73">
-        <v>1.0777000000000001</v>
+        <v>0.41909999999999997</v>
       </c>
       <c r="F73">
-        <v>-1.3934</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>-0.75239999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -2169,19 +1947,19 @@
         <v>7</v>
       </c>
       <c r="C74">
-        <v>0.1108</v>
+        <v>0.1757</v>
       </c>
       <c r="D74">
-        <v>0.54449999999999998</v>
+        <v>-1.2117</v>
       </c>
       <c r="E74">
-        <v>-1.0895999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F74">
-        <v>1.3954</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>-0.5766</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -2189,19 +1967,19 @@
         <v>8</v>
       </c>
       <c r="C75">
-        <v>-0.92710000000000004</v>
+        <v>1.1006</v>
       </c>
       <c r="D75">
-        <v>-0.84889999999999999</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="E75">
-        <v>-0.16689999999999999</v>
+        <v>0.68789999999999996</v>
       </c>
       <c r="F75">
-        <v>-0.81430000000000002</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>1.1978</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2209,19 +1987,19 @@
         <v>9</v>
       </c>
       <c r="C76">
-        <v>-0.53920000000000001</v>
+        <v>-1.3249</v>
       </c>
       <c r="D76">
-        <v>-0.83179999999999998</v>
+        <v>-0.40810000000000002</v>
       </c>
       <c r="E76">
-        <v>-0.077100000000000002</v>
+        <v>-1.2954000000000001</v>
       </c>
       <c r="F76">
-        <v>-0.62280000000000002</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>-1.0317000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -2229,19 +2007,19 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>1.3554999999999999</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="D77">
-        <v>1.1362000000000001</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="E77">
-        <v>1.3337000000000001</v>
+        <v>-0.27250000000000002</v>
       </c>
       <c r="F77">
-        <v>0.041700000000000001</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>0.41049999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>29</v>
       </c>
@@ -2249,19 +2027,19 @@
         <v>7</v>
       </c>
       <c r="C78">
-        <v>-1.0174000000000001</v>
+        <v>-0.69140000000000001</v>
       </c>
       <c r="D78">
-        <v>1.0763</v>
+        <v>0.92869999999999997</v>
       </c>
       <c r="E78">
-        <v>-1.0976999999999999</v>
+        <v>-0.79149999999999998</v>
       </c>
       <c r="F78">
-        <v>-0.83640000000000003</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>0.69840000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -2269,19 +2047,19 @@
         <v>8</v>
       </c>
       <c r="C79">
-        <v>1.1988000000000001</v>
+        <v>1.3439000000000001</v>
       </c>
       <c r="D79">
-        <v>-0.82169999999999999</v>
+        <v>-3.61E-2</v>
       </c>
       <c r="E79">
-        <v>0.70130000000000003</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="F79">
-        <v>1.4482999999999999</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>-8.0500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>29</v>
       </c>
@@ -2289,19 +2067,19 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>-0.59630000000000005</v>
+        <v>-0.82779999999999998</v>
       </c>
       <c r="D80">
-        <v>-0.88029999999999997</v>
+        <v>-1.3785000000000001</v>
       </c>
       <c r="E80">
-        <v>-0.58440000000000003</v>
+        <v>-0.92789999999999995</v>
       </c>
       <c r="F80">
-        <v>-0.3947</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>0.76690000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -2309,19 +2087,19 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>0.41499999999999998</v>
+        <v>0.17519999999999999</v>
       </c>
       <c r="D81">
-        <v>0.62570000000000003</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="E81">
-        <v>0.98070000000000002</v>
+        <v>0.72870000000000001</v>
       </c>
       <c r="F81">
-        <v>-0.2172</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>-1.3848</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -2329,16 +2107,19 @@
         <v>7</v>
       </c>
       <c r="C82">
-        <v>1.1482000000000001</v>
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="D82">
+        <v>0.54759999999999998</v>
       </c>
       <c r="E82">
-        <v>1.3629</v>
+        <v>0.37140000000000001</v>
       </c>
       <c r="F82">
-        <v>0.70420000000000005</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>-0.35780000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -2346,16 +2127,19 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <v>-0.91669999999999996</v>
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="D83">
+        <v>-1.4890000000000001</v>
       </c>
       <c r="E83">
-        <v>-0.99880000000000002</v>
+        <v>0.63870000000000005</v>
       </c>
       <c r="F83">
-        <v>-1.3838999999999999</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>1.2383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -2363,16 +2147,19 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>-0.754</v>
+        <v>-1.4446000000000001</v>
+      </c>
+      <c r="D84">
+        <v>0.32940000000000003</v>
       </c>
       <c r="E84">
-        <v>-0.38030000000000003</v>
+        <v>-1.4908999999999999</v>
       </c>
       <c r="F84">
-        <v>-0.083299999999999999</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>-1.1297999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -2380,16 +2167,19 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>0.52249999999999996</v>
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="D85">
+        <v>0.61199999999999999</v>
       </c>
       <c r="E85">
-        <v>0.016199999999999999</v>
+        <v>0.48080000000000001</v>
       </c>
       <c r="F85">
-        <v>0.76290000000000002</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>0.2492</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -2397,19 +2187,19 @@
         <v>7</v>
       </c>
       <c r="C86">
-        <v>-0.2016</v>
+        <v>1.3097000000000001</v>
       </c>
       <c r="D86">
-        <v>-0.76549999999999996</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="E86">
-        <v>-1.0365</v>
+        <v>1.3379000000000001</v>
       </c>
       <c r="F86">
-        <v>0.66449999999999998</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>0.89739999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>31</v>
       </c>
@@ -2417,19 +2207,19 @@
         <v>8</v>
       </c>
       <c r="C87">
-        <v>1.4548000000000001</v>
+        <v>0.23760000000000001</v>
       </c>
       <c r="D87">
-        <v>0.47070000000000001</v>
+        <v>0.72240000000000004</v>
       </c>
       <c r="E87">
-        <v>-0.57430000000000003</v>
+        <v>-0.28170000000000001</v>
       </c>
       <c r="F87">
-        <v>1.0410999999999999</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>0.73719999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -2437,19 +2227,19 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>-0.45700000000000002</v>
+        <v>-0.64859999999999995</v>
       </c>
       <c r="D88">
-        <v>-0.8891</v>
+        <v>-0.67230000000000001</v>
       </c>
       <c r="E88">
-        <v>1.1917</v>
+        <v>-1.0632999999999999</v>
       </c>
       <c r="F88">
-        <v>-0.95309999999999995</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>-0.42020000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>31</v>
       </c>
@@ -2457,19 +2247,19 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>-0.79630000000000001</v>
+        <v>-0.89870000000000005</v>
       </c>
       <c r="D89">
-        <v>1.1839999999999999</v>
+        <v>-1.0313000000000001</v>
       </c>
       <c r="E89">
-        <v>0.41909999999999997</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F89">
-        <v>-0.75239999999999996</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>-1.2143999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -2477,19 +2267,19 @@
         <v>7</v>
       </c>
       <c r="C90">
-        <v>0.1757</v>
+        <v>1.2037</v>
       </c>
       <c r="D90">
-        <v>-1.2117</v>
+        <v>0.70920000000000005</v>
       </c>
       <c r="E90">
-        <v>0.88</v>
+        <v>1.0478000000000001</v>
       </c>
       <c r="F90">
-        <v>-0.5766</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>1.2983</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -2497,19 +2287,19 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>1.1006</v>
+        <v>0.43640000000000001</v>
       </c>
       <c r="D91">
-        <v>0.97370000000000001</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="E91">
-        <v>0.68789999999999996</v>
+        <v>0.65449999999999997</v>
       </c>
       <c r="F91">
-        <v>1.1978</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>0.27550000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -2517,19 +2307,19 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>-1.3249</v>
+        <v>-0.90810000000000002</v>
       </c>
       <c r="D92">
-        <v>-0.40810000000000002</v>
+        <v>-1.0664</v>
       </c>
       <c r="E92">
-        <v>-1.2954000000000001</v>
+        <v>-0.96260000000000001</v>
       </c>
       <c r="F92">
-        <v>-1.0317000000000001</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>-0.7752</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -2537,19 +2327,19 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>0.048599999999999997</v>
+        <v>-0.73199999999999998</v>
       </c>
       <c r="D93">
-        <v>0.64600000000000002</v>
+        <v>-0.62639999999999996</v>
       </c>
       <c r="E93">
-        <v>-0.27250000000000002</v>
+        <v>-0.73970000000000002</v>
       </c>
       <c r="F93">
-        <v>0.41049999999999998</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>-0.79849999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -2557,19 +2347,19 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>-0.69140000000000001</v>
+        <v>-0.51539999999999997</v>
       </c>
       <c r="D94">
-        <v>0.92869999999999997</v>
+        <v>0.77539999999999998</v>
       </c>
       <c r="E94">
-        <v>-0.79149999999999998</v>
+        <v>-0.59619999999999995</v>
       </c>
       <c r="F94">
-        <v>0.69840000000000002</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>-0.33040000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -2577,19 +2367,19 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>1.3439000000000001</v>
+        <v>-0.22090000000000001</v>
       </c>
       <c r="D95">
-        <v>-0.0361</v>
+        <v>0.3805</v>
       </c>
       <c r="E95">
-        <v>0.99070000000000003</v>
+        <v>0.9879</v>
       </c>
       <c r="F95">
-        <v>-0.080500000000000002</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>-1.1265000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -2597,19 +2387,19 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>-0.82779999999999998</v>
+        <v>-0.73060000000000003</v>
       </c>
       <c r="D96">
-        <v>-1.3785000000000001</v>
+        <v>-1.4683999999999999</v>
       </c>
       <c r="E96">
-        <v>-0.92789999999999995</v>
+        <v>-1.0880000000000001</v>
       </c>
       <c r="F96">
-        <v>0.76690000000000003</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -2617,19 +2407,19 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>0.17519999999999999</v>
+        <v>1.4669000000000001</v>
       </c>
       <c r="D97">
-        <v>0.48580000000000001</v>
+        <v>0.31259999999999999</v>
       </c>
       <c r="E97">
-        <v>0.72870000000000001</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="F97">
-        <v>-1.3848</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>1.2578</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -2637,19 +2427,19 @@
         <v>7</v>
       </c>
       <c r="C98">
-        <v>0.37509999999999999</v>
+        <v>-0.70940000000000003</v>
       </c>
       <c r="D98">
-        <v>0.54759999999999998</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="E98">
-        <v>0.37140000000000001</v>
+        <v>-1.0189999999999999</v>
       </c>
       <c r="F98">
-        <v>-0.35780000000000001</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>-0.49609999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -2657,19 +2447,19 @@
         <v>8</v>
       </c>
       <c r="C99">
-        <v>0.85150000000000003</v>
+        <v>1.0845</v>
       </c>
       <c r="D99">
-        <v>-1.4890000000000001</v>
+        <v>0.75319999999999998</v>
       </c>
       <c r="E99">
-        <v>0.63870000000000005</v>
+        <v>1.0407</v>
       </c>
       <c r="F99">
-        <v>1.2383</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>1.1507000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>34</v>
       </c>
@@ -2677,19 +2467,19 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>-1.4446000000000001</v>
+        <v>-0.97819999999999996</v>
       </c>
       <c r="D100">
-        <v>0.32940000000000003</v>
+        <v>-1.3022</v>
       </c>
       <c r="E100">
-        <v>-1.4908999999999999</v>
+        <v>-0.67359999999999998</v>
       </c>
       <c r="F100">
-        <v>-1.1297999999999999</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>-1.1069</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -2697,342 +2487,19 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>0.21790000000000001</v>
+        <v>0.60319999999999996</v>
       </c>
       <c r="D101">
-        <v>0.61199999999999999</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="E101">
-        <v>0.48080000000000001</v>
+        <v>0.65180000000000005</v>
       </c>
       <c r="F101">
-        <v>0.2492</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102">
-        <v>1.3097000000000001</v>
-      </c>
-      <c r="D102">
-        <v>0.98109999999999997</v>
-      </c>
-      <c r="E102">
-        <v>1.3379000000000001</v>
-      </c>
-      <c r="F102">
-        <v>0.89739999999999998</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>35</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103">
-        <v>0.23760000000000001</v>
-      </c>
-      <c r="D103">
-        <v>0.72240000000000004</v>
-      </c>
-      <c r="E103">
-        <v>-0.28170000000000001</v>
-      </c>
-      <c r="F103">
-        <v>0.73719999999999997</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>35</v>
-      </c>
-      <c r="B104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104">
-        <v>-0.64859999999999995</v>
-      </c>
-      <c r="D104">
-        <v>-0.67230000000000001</v>
-      </c>
-      <c r="E104">
-        <v>-1.0632999999999999</v>
-      </c>
-      <c r="F104">
-        <v>-0.42020000000000002</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>35</v>
-      </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105">
-        <v>-0.89870000000000005</v>
-      </c>
-      <c r="D105">
-        <v>-1.0313000000000001</v>
-      </c>
-      <c r="E105">
-        <v>0.0070000000000000001</v>
-      </c>
-      <c r="F105">
-        <v>-1.2143999999999999</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>36</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106">
-        <v>1.2037</v>
-      </c>
-      <c r="D106">
-        <v>0.70920000000000005</v>
-      </c>
-      <c r="E106">
-        <v>1.0478000000000001</v>
-      </c>
-      <c r="F106">
-        <v>1.2983</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>36</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107">
-        <v>0.43640000000000001</v>
-      </c>
-      <c r="D107">
-        <v>0.98360000000000003</v>
-      </c>
-      <c r="E107">
-        <v>0.65449999999999997</v>
-      </c>
-      <c r="F107">
-        <v>0.27550000000000002</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>36</v>
-      </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108">
-        <v>-0.90810000000000002</v>
-      </c>
-      <c r="D108">
-        <v>-1.0664</v>
-      </c>
-      <c r="E108">
-        <v>-0.96260000000000001</v>
-      </c>
-      <c r="F108">
-        <v>-0.7752</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>36</v>
-      </c>
-      <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109">
-        <v>-0.73199999999999998</v>
-      </c>
-      <c r="D109">
-        <v>-0.62639999999999996</v>
-      </c>
-      <c r="E109">
-        <v>-0.73970000000000002</v>
-      </c>
-      <c r="F109">
-        <v>-0.79849999999999999</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110">
-        <v>-0.51539999999999997</v>
-      </c>
-      <c r="D110">
-        <v>0.77539999999999998</v>
-      </c>
-      <c r="E110">
-        <v>-0.59619999999999995</v>
-      </c>
-      <c r="F110">
-        <v>-0.33040000000000003</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111">
-        <v>-0.22090000000000001</v>
-      </c>
-      <c r="D111">
-        <v>0.3805</v>
-      </c>
-      <c r="E111">
-        <v>0.9879</v>
-      </c>
-      <c r="F111">
-        <v>-1.1265000000000001</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>37</v>
-      </c>
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112">
-        <v>-0.73060000000000003</v>
-      </c>
-      <c r="D112">
-        <v>-1.4683999999999999</v>
-      </c>
-      <c r="E112">
-        <v>-1.0880000000000001</v>
-      </c>
-      <c r="F112">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>37</v>
-      </c>
-      <c r="B113" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113">
-        <v>1.4669000000000001</v>
-      </c>
-      <c r="D113">
-        <v>0.31259999999999999</v>
-      </c>
-      <c r="E113">
-        <v>0.69630000000000003</v>
-      </c>
-      <c r="F113">
-        <v>1.2578</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>38</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114">
-        <v>-0.70940000000000003</v>
-      </c>
-      <c r="D114">
-        <v>-0.26700000000000002</v>
-      </c>
-      <c r="E114">
-        <v>-1.0189999999999999</v>
-      </c>
-      <c r="F114">
-        <v>-0.49609999999999999</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>38</v>
-      </c>
-      <c r="B115" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115">
-        <v>1.0845</v>
-      </c>
-      <c r="D115">
-        <v>0.75319999999999998</v>
-      </c>
-      <c r="E115">
-        <v>1.0407</v>
-      </c>
-      <c r="F115">
-        <v>1.1507000000000001</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>38</v>
-      </c>
-      <c r="B116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116">
-        <v>-0.97819999999999996</v>
-      </c>
-      <c r="D116">
-        <v>-1.3022</v>
-      </c>
-      <c r="E116">
-        <v>-0.67359999999999998</v>
-      </c>
-      <c r="F116">
-        <v>-1.1069</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>38</v>
-      </c>
-      <c r="B117" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117">
-        <v>0.60319999999999996</v>
-      </c>
-      <c r="D117">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="E117">
-        <v>0.65180000000000005</v>
-      </c>
-      <c r="F117">
         <v>0.45229999999999998</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
 </worksheet>
 </file>